--- a/Dataco2.xlsx
+++ b/Dataco2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaminomarina/develop/a-ds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F82C32-0E2B-3F4E-BBC6-59B3048DECB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5763AC4-FF1A-0646-8AAC-1152B695B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="500" windowWidth="27900" windowHeight="16180" xr2:uid="{4C3537EA-BE6B-EE41-A6CF-0AB2158792D2}"/>
   </bookViews>
@@ -35,97 +35,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="268">
   <si>
     <t>Country</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
-    <t>1991 [YR1991]</t>
-  </si>
-  <si>
-    <t>1992 [YR1992]</t>
-  </si>
-  <si>
-    <t>1993 [YR1993]</t>
-  </si>
-  <si>
-    <t>1994 [YR1994]</t>
-  </si>
-  <si>
-    <t>1995 [YR1995]</t>
-  </si>
-  <si>
-    <t>1996 [YR1996]</t>
-  </si>
-  <si>
-    <t>1997 [YR1997]</t>
-  </si>
-  <si>
-    <t>1998 [YR1998]</t>
-  </si>
-  <si>
-    <t>1999 [YR1999]</t>
-  </si>
-  <si>
-    <t>2000 [YR2000]</t>
-  </si>
-  <si>
-    <t>2001 [YR2001]</t>
-  </si>
-  <si>
-    <t>2002 [YR2002]</t>
-  </si>
-  <si>
-    <t>2003 [YR2003]</t>
-  </si>
-  <si>
-    <t>2004 [YR2004]</t>
-  </si>
-  <si>
-    <t>2005 [YR2005]</t>
-  </si>
-  <si>
-    <t>2006 [YR2006]</t>
-  </si>
-  <si>
-    <t>2007 [YR2007]</t>
-  </si>
-  <si>
-    <t>2008 [YR2008]</t>
-  </si>
-  <si>
-    <t>2009 [YR2009]</t>
-  </si>
-  <si>
-    <t>2010 [YR2010]</t>
-  </si>
-  <si>
-    <t>2011 [YR2011]</t>
-  </si>
-  <si>
-    <t>2012 [YR2012]</t>
-  </si>
-  <si>
-    <t>2013 [YR2013]</t>
-  </si>
-  <si>
-    <t>2014 [YR2014]</t>
-  </si>
-  <si>
-    <t>2015 [YR2015]</t>
-  </si>
-  <si>
-    <t>2016 [YR2016]</t>
-  </si>
-  <si>
-    <t>2017 [YR2017]</t>
-  </si>
-  <si>
-    <t>2018 [YR2018]</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1300,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251290D1-16FD-264B-93D0-31CD6E156F28}">
   <dimension ref="A1:AD267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1310,97 +1223,97 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
+      <c r="B1" s="1">
+        <v>1990</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1991</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1993</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1994</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1995</v>
+      </c>
+      <c r="H1" s="1">
+        <v>1996</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1997</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1998</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1999</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2960</v>
@@ -1492,7 +1405,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>6050</v>
@@ -1584,7 +1497,7 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>67890</v>
@@ -1676,99 +1589,99 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>410</v>
@@ -1860,7 +1773,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>6330</v>
@@ -1952,7 +1865,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>210</v>
@@ -2044,7 +1957,7 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>99840</v>
@@ -2136,7 +2049,7 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>19850</v>
@@ -2228,99 +2141,99 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>263600</v>
@@ -2412,7 +2325,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>58270</v>
@@ -2504,7 +2417,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>57520</v>
@@ -2596,7 +2509,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>1780</v>
@@ -2688,7 +2601,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>10740</v>
@@ -2780,7 +2693,7 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>11520</v>
@@ -2872,7 +2785,7 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>980</v>
@@ -2964,7 +2877,7 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>99850</v>
@@ -3056,7 +2969,7 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>109310</v>
@@ -3148,7 +3061,7 @@
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>330</v>
@@ -3240,7 +3153,7 @@
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>380</v>
@@ -3332,99 +3245,99 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>130</v>
@@ -3516,7 +3429,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>5680</v>
@@ -3608,7 +3521,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>23970</v>
@@ -3700,7 +3613,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>2810</v>
@@ -3792,7 +3705,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>198260</v>
@@ -3884,99 +3797,99 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>3920</v>
@@ -4068,7 +3981,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>73560</v>
@@ -4160,7 +4073,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>590</v>
@@ -4252,7 +4165,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>190</v>
@@ -4344,7 +4257,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>100</v>
@@ -4436,7 +4349,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>1260</v>
@@ -4528,7 +4441,7 @@
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>2900</v>
@@ -4620,7 +4533,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>419120</v>
@@ -4712,99 +4625,99 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>160</v>
@@ -4896,7 +4809,7 @@
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>390</v>
@@ -4988,99 +4901,99 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>30410</v>
@@ -5172,7 +5085,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>2173360</v>
@@ -5264,7 +5177,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>48860</v>
@@ -5356,7 +5269,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>70</v>
@@ -5448,7 +5361,7 @@
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>3180</v>
@@ -5540,7 +5453,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>840</v>
@@ -5632,7 +5545,7 @@
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>2870</v>
@@ -5724,7 +5637,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>2710</v>
@@ -5816,7 +5729,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>20330</v>
@@ -5908,7 +5821,7 @@
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>35410</v>
@@ -6000,99 +5913,99 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>4560</v>
@@ -6184,7 +6097,7 @@
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>150200</v>
@@ -6276,7 +6189,7 @@
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>52080</v>
@@ -6368,7 +6281,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>330</v>
@@ -6460,7 +6373,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>60</v>
@@ -6552,7 +6465,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>7860</v>
@@ -6644,7 +6557,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>15600</v>
@@ -6736,7 +6649,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>86820</v>
@@ -6828,7 +6741,7 @@
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>2380</v>
@@ -6920,7 +6833,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>60</v>
@@ -7012,7 +6925,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -7104,7 +7017,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>35020</v>
@@ -7196,7 +7109,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>950</v>
@@ -7288,7 +7201,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>2310</v>
@@ -7380,99 +7293,99 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>730</v>
@@ -7564,7 +7477,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>54560</v>
@@ -7656,7 +7569,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>356540</v>
@@ -7748,99 +7661,99 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>4130</v>
@@ -7932,7 +7845,7 @@
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>190</v>
@@ -8024,7 +7937,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>33490</v>
@@ -8116,7 +8029,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>955310</v>
@@ -8208,7 +8121,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>2790</v>
@@ -8300,99 +8213,99 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>75620</v>
@@ -8484,99 +8397,99 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>110</v>
@@ -8668,99 +8581,99 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>3930</v>
@@ -8852,7 +8765,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>1000</v>
@@ -8944,7 +8857,7 @@
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>170</v>
@@ -9036,7 +8949,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="1" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>1180</v>
@@ -9128,7 +9041,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>1020</v>
@@ -9220,7 +9133,7 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>2460</v>
@@ -9312,99 +9225,99 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>67420</v>
@@ -9496,7 +9409,7 @@
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>1950</v>
@@ -9588,7 +9501,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>562480</v>
@@ -9680,7 +9593,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>147990</v>
@@ -9772,7 +9685,7 @@
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>179240</v>
@@ -9864,7 +9777,7 @@
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>64850</v>
@@ -9956,7 +9869,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>31000</v>
@@ -10048,99 +9961,99 @@
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="1" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>33800</v>
@@ -10232,7 +10145,7 @@
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>405260</v>
@@ -10324,7 +10237,7 @@
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>7470</v>
@@ -10416,7 +10329,7 @@
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>1092560</v>
@@ -10508,7 +10421,7 @@
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>9930</v>
@@ -10600,7 +10513,7 @@
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>237570</v>
@@ -10692,7 +10605,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>6140</v>
@@ -10784,7 +10697,7 @@
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>20</v>
@@ -10876,7 +10789,7 @@
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>123370</v>
@@ -10968,7 +10881,7 @@
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="1" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>249250</v>
@@ -11060,99 +10973,99 @@
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>29250</v>
@@ -11244,7 +11157,7 @@
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="1" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>22760</v>
@@ -11336,7 +11249,7 @@
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="1" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>510</v>
@@ -11428,7 +11341,7 @@
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="1" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
         <v>18780</v>
@@ -11520,7 +11433,7 @@
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>5620</v>
@@ -11612,7 +11525,7 @@
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>1390</v>
@@ -11704,7 +11617,7 @@
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>450</v>
@@ -11796,7 +11709,7 @@
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>36090</v>
@@ -11888,7 +11801,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1">
         <v>200</v>
@@ -11980,7 +11893,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1">
         <v>32220</v>
@@ -12072,7 +11985,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1">
         <v>11320</v>
@@ -12164,99 +12077,99 @@
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD119" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="1" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>890</v>
@@ -12348,7 +12261,7 @@
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
         <v>720</v>
@@ -12440,7 +12353,7 @@
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1">
         <v>56190</v>
@@ -12532,7 +12445,7 @@
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1">
         <v>160</v>
@@ -12624,7 +12537,7 @@
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>420</v>
@@ -12716,7 +12629,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1">
         <v>2320</v>
@@ -12808,7 +12721,7 @@
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -12900,7 +12813,7 @@
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>840</v>
@@ -12992,7 +12905,7 @@
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>1160</v>
@@ -13084,7 +12997,7 @@
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>267700</v>
@@ -13176,7 +13089,7 @@
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -13268,7 +13181,7 @@
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>30530</v>
@@ -13360,99 +13273,99 @@
     </row>
     <row r="132" spans="1:30">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:30">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>12970</v>
@@ -13544,7 +13457,7 @@
     </row>
     <row r="134" spans="1:30">
       <c r="A134" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -13636,7 +13549,7 @@
     </row>
     <row r="135" spans="1:30">
       <c r="A135" s="1" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1">
         <v>21730</v>
@@ -13728,7 +13641,7 @@
     </row>
     <row r="136" spans="1:30">
       <c r="A136" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1">
         <v>1120</v>
@@ -13820,7 +13733,7 @@
     </row>
     <row r="137" spans="1:30">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1">
         <v>4190</v>
@@ -13912,10 +13825,10 @@
     </row>
     <row r="138" spans="1:30">
       <c r="A138" s="1" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C138" s="1">
         <v>1120</v>
@@ -14004,7 +13917,7 @@
     </row>
     <row r="139" spans="1:30">
       <c r="A139" s="1" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1">
         <v>130</v>
@@ -14096,7 +14009,7 @@
     </row>
     <row r="140" spans="1:30">
       <c r="A140" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1">
         <v>940</v>
@@ -14188,7 +14101,7 @@
     </row>
     <row r="141" spans="1:30">
       <c r="A141" s="1" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>148350</v>
@@ -14280,99 +14193,99 @@
     </row>
     <row r="142" spans="1:30">
       <c r="A142" s="1" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:30">
       <c r="A143" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1">
         <v>22310</v>
@@ -14464,7 +14377,7 @@
     </row>
     <row r="144" spans="1:30">
       <c r="A144" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>1930</v>
@@ -14556,7 +14469,7 @@
     </row>
     <row r="145" spans="1:30">
       <c r="A145" s="1" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1">
         <v>600</v>
@@ -14648,7 +14561,7 @@
     </row>
     <row r="146" spans="1:30">
       <c r="A146" s="1" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1">
         <v>67850</v>
@@ -14740,7 +14653,7 @@
     </row>
     <row r="147" spans="1:30">
       <c r="A147" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1">
         <v>8590</v>
@@ -14832,99 +14745,99 @@
     </row>
     <row r="148" spans="1:30">
       <c r="A148" s="1" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:30">
       <c r="A149" s="1" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1">
         <v>29200</v>
@@ -15016,7 +14929,7 @@
     </row>
     <row r="150" spans="1:30">
       <c r="A150" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>11890</v>
@@ -15108,7 +15021,7 @@
     </row>
     <row r="151" spans="1:30">
       <c r="A151" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1">
         <v>61050</v>
@@ -15200,7 +15113,7 @@
     </row>
     <row r="152" spans="1:30">
       <c r="A152" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -15292,7 +15205,7 @@
     </row>
     <row r="153" spans="1:30">
       <c r="A153" s="1" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1">
         <v>2690</v>
@@ -15384,7 +15297,7 @@
     </row>
     <row r="154" spans="1:30">
       <c r="A154" s="1" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1">
         <v>2170</v>
@@ -15476,7 +15389,7 @@
     </row>
     <row r="155" spans="1:30">
       <c r="A155" s="1" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1">
         <v>2070</v>
@@ -15568,7 +15481,7 @@
     </row>
     <row r="156" spans="1:30">
       <c r="A156" s="1" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1">
         <v>20630</v>
@@ -15660,7 +15573,7 @@
     </row>
     <row r="157" spans="1:30">
       <c r="A157" s="1" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1">
         <v>40840</v>
@@ -15752,7 +15665,7 @@
     </row>
     <row r="158" spans="1:30">
       <c r="A158" s="1" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1">
         <v>350220</v>
@@ -15844,7 +15757,7 @@
     </row>
     <row r="159" spans="1:30">
       <c r="A159" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1">
         <v>41070</v>
@@ -15936,99 +15849,99 @@
     </row>
     <row r="160" spans="1:30">
       <c r="A160" s="1" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD160" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:30">
       <c r="A161" s="1" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1">
         <v>12540</v>
@@ -16120,7 +16033,7 @@
     </row>
     <row r="162" spans="1:30">
       <c r="A162" s="1" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1">
         <v>172630</v>
@@ -16212,7 +16125,7 @@
     </row>
     <row r="163" spans="1:30">
       <c r="A163" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1">
         <v>2164870</v>
@@ -16304,7 +16217,7 @@
     </row>
     <row r="164" spans="1:30">
       <c r="A164" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1">
         <v>520</v>
@@ -16396,7 +16309,7 @@
     </row>
     <row r="165" spans="1:30">
       <c r="A165" s="1" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1">
         <v>110</v>
@@ -16488,99 +16401,99 @@
     </row>
     <row r="166" spans="1:30">
       <c r="A166" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:30">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1">
         <v>50</v>
@@ -16672,7 +16585,7 @@
     </row>
     <row r="168" spans="1:30">
       <c r="A168" s="1" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1">
         <v>166390</v>
@@ -16764,7 +16677,7 @@
     </row>
     <row r="169" spans="1:30">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1">
         <v>2330</v>
@@ -16856,7 +16769,7 @@
     </row>
     <row r="170" spans="1:30">
       <c r="A170" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1">
         <v>61910</v>
@@ -16948,7 +16861,7 @@
     </row>
     <row r="171" spans="1:30">
       <c r="A171" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1">
         <v>150</v>
@@ -17040,7 +16953,7 @@
     </row>
     <row r="172" spans="1:30">
       <c r="A172" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1">
         <v>340</v>
@@ -17132,7 +17045,7 @@
     </row>
     <row r="173" spans="1:30">
       <c r="A173" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1">
         <v>29720</v>
@@ -17224,99 +17137,99 @@
     </row>
     <row r="174" spans="1:30">
       <c r="A174" s="1" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:30">
       <c r="A175" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1">
         <v>54810</v>
@@ -17408,7 +17321,7 @@
     </row>
     <row r="176" spans="1:30">
       <c r="A176" s="1" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1">
         <v>13530</v>
@@ -17500,7 +17413,7 @@
     </row>
     <row r="177" spans="1:30">
       <c r="A177" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1">
         <v>150</v>
@@ -17592,7 +17505,7 @@
     </row>
     <row r="178" spans="1:30">
       <c r="A178" s="1" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1">
         <v>730</v>
@@ -17684,7 +17597,7 @@
     </row>
     <row r="179" spans="1:30">
       <c r="A179" s="1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1">
         <v>247660</v>
@@ -17776,7 +17689,7 @@
     </row>
     <row r="180" spans="1:30">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -17868,7 +17781,7 @@
     </row>
     <row r="181" spans="1:30">
       <c r="A181" s="1" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1">
         <v>215020</v>
@@ -17960,7 +17873,7 @@
     </row>
     <row r="182" spans="1:30">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1">
         <v>3840</v>
@@ -18052,7 +17965,7 @@
     </row>
     <row r="183" spans="1:30">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1">
         <v>110</v>
@@ -18144,7 +18057,7 @@
     </row>
     <row r="184" spans="1:30">
       <c r="A184" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1">
         <v>170</v>
@@ -18236,99 +18149,99 @@
     </row>
     <row r="185" spans="1:30">
       <c r="A185" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD185" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:30">
       <c r="A186" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1">
         <v>80</v>
@@ -18420,7 +18333,7 @@
     </row>
     <row r="187" spans="1:30">
       <c r="A187" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1">
         <v>5370</v>
@@ -18512,7 +18425,7 @@
     </row>
     <row r="188" spans="1:30">
       <c r="A188" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1">
         <v>1740</v>
@@ -18604,7 +18517,7 @@
     </row>
     <row r="189" spans="1:30">
       <c r="A189" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1">
         <v>53350</v>
@@ -18696,7 +18609,7 @@
     </row>
     <row r="190" spans="1:30">
       <c r="A190" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1">
         <v>43330</v>
@@ -18788,7 +18701,7 @@
     </row>
     <row r="191" spans="1:30">
       <c r="A191" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1">
         <v>29570</v>
@@ -18880,7 +18793,7 @@
     </row>
     <row r="192" spans="1:30">
       <c r="A192" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1">
         <v>11020</v>
@@ -18972,7 +18885,7 @@
     </row>
     <row r="193" spans="1:30">
       <c r="A193" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1">
         <v>1890</v>
@@ -19064,7 +18977,7 @@
     </row>
     <row r="194" spans="1:30">
       <c r="A194" s="1" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1">
         <v>88560</v>
@@ -19156,7 +19069,7 @@
     </row>
     <row r="195" spans="1:30">
       <c r="A195" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -19248,7 +19161,7 @@
     </row>
     <row r="196" spans="1:30">
       <c r="A196" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1">
         <v>970</v>
@@ -19340,7 +19253,7 @@
     </row>
     <row r="197" spans="1:30">
       <c r="A197" s="1" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1">
         <v>80</v>
@@ -19432,7 +19345,7 @@
     </row>
     <row r="198" spans="1:30">
       <c r="A198" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1">
         <v>14110</v>
@@ -19524,7 +19437,7 @@
     </row>
     <row r="199" spans="1:30">
       <c r="A199" s="1" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1">
         <v>13750</v>
@@ -19616,7 +19529,7 @@
     </row>
     <row r="200" spans="1:30">
       <c r="A200" s="1" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1">
         <v>139220</v>
@@ -19708,7 +19621,7 @@
     </row>
     <row r="201" spans="1:30">
       <c r="A201" s="1" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1">
         <v>44650</v>
@@ -19800,99 +19713,99 @@
     </row>
     <row r="202" spans="1:30">
       <c r="A202" s="1" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD202" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:30">
       <c r="A203" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1">
         <v>10</v>
@@ -19984,7 +19897,7 @@
     </row>
     <row r="204" spans="1:30">
       <c r="A204" s="1" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1">
         <v>790</v>
@@ -20076,7 +19989,7 @@
     </row>
     <row r="205" spans="1:30">
       <c r="A205" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1">
         <v>688620</v>
@@ -20168,7 +20081,7 @@
     </row>
     <row r="206" spans="1:30">
       <c r="A206" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1">
         <v>55400</v>
@@ -20260,7 +20173,7 @@
     </row>
     <row r="207" spans="1:30">
       <c r="A207" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1">
         <v>556690</v>
@@ -20352,7 +20265,7 @@
     </row>
     <row r="208" spans="1:30">
       <c r="A208" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1">
         <v>4844990</v>
@@ -20444,7 +20357,7 @@
     </row>
     <row r="209" spans="1:30">
       <c r="A209" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B209" s="1">
         <v>3850</v>
@@ -20536,7 +20449,7 @@
     </row>
     <row r="210" spans="1:30">
       <c r="A210" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1">
         <v>117770</v>
@@ -20628,7 +20541,7 @@
     </row>
     <row r="211" spans="1:30">
       <c r="A211" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1">
         <v>70</v>
@@ -20720,7 +20633,7 @@
     </row>
     <row r="212" spans="1:30">
       <c r="A212" s="1" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1">
         <v>103120</v>
@@ -20812,7 +20725,7 @@
     </row>
     <row r="213" spans="1:30">
       <c r="A213" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1">
         <v>18410</v>
@@ -20904,191 +20817,191 @@
     </row>
     <row r="214" spans="1:30">
       <c r="A214" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD214" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:30">
       <c r="A215" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD215" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:30">
       <c r="A216" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1">
         <v>6640</v>
@@ -21180,7 +21093,7 @@
     </row>
     <row r="217" spans="1:30">
       <c r="A217" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1">
         <v>2740</v>
@@ -21272,7 +21185,7 @@
     </row>
     <row r="218" spans="1:30">
       <c r="A218" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1">
         <v>16530</v>
@@ -21364,7 +21277,7 @@
     </row>
     <row r="219" spans="1:30">
       <c r="A219" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1">
         <v>306071.60293995176</v>
@@ -21456,7 +21369,7 @@
     </row>
     <row r="220" spans="1:30">
       <c r="A220" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1">
         <v>90209.999999999985</v>
@@ -21548,7 +21461,7 @@
     </row>
     <row r="221" spans="1:30">
       <c r="A221" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1">
         <v>640142.20318349905</v>
@@ -21640,7 +21553,7 @@
     </row>
     <row r="222" spans="1:30">
       <c r="A222" s="1" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1">
         <v>28330.000000000015</v>
@@ -21732,7 +21645,7 @@
     </row>
     <row r="223" spans="1:30">
       <c r="A223" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1">
         <v>988719.99999999988</v>
@@ -21824,7 +21737,7 @@
     </row>
     <row r="224" spans="1:30">
       <c r="A224" s="1" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1">
         <v>2597158.5701531642</v>
@@ -21916,7 +21829,7 @@
     </row>
     <row r="225" spans="1:30">
       <c r="A225" s="1" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1">
         <v>4515304.185718637</v>
@@ -22008,7 +21921,7 @@
     </row>
     <row r="226" spans="1:30">
       <c r="A226" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1">
         <v>2671301.0898152129</v>
@@ -22100,7 +22013,7 @@
     </row>
     <row r="227" spans="1:30">
       <c r="A227" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1">
         <v>2548192.6832084381</v>
@@ -22192,7 +22105,7 @@
     </row>
     <row r="228" spans="1:30">
       <c r="A228" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1">
         <v>2622870.0000000005</v>
@@ -22284,7 +22197,7 @@
     </row>
     <row r="229" spans="1:30">
       <c r="A229" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1">
         <v>7976798.768962088</v>
@@ -22376,7 +22289,7 @@
     </row>
     <row r="230" spans="1:30">
       <c r="A230" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1">
         <v>4025351.4704687167</v>
@@ -22468,7 +22381,7 @@
     </row>
     <row r="231" spans="1:30">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1">
         <v>4395401.2662275834</v>
@@ -22560,7 +22473,7 @@
     </row>
     <row r="232" spans="1:30">
       <c r="A232" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1">
         <v>3562660.0000000019</v>
@@ -22652,7 +22565,7 @@
     </row>
     <row r="233" spans="1:30">
       <c r="A233" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1">
         <v>445035.9251868896</v>
@@ -22744,7 +22657,7 @@
     </row>
     <row r="234" spans="1:30">
       <c r="A234" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1">
         <v>54317.307039063962</v>
@@ -22836,7 +22749,7 @@
     </row>
     <row r="235" spans="1:30">
       <c r="A235" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1">
         <v>11480502.276252739</v>
@@ -22928,7 +22841,7 @@
     </row>
     <row r="236" spans="1:30">
       <c r="A236" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1">
         <v>8929720.3095236458</v>
@@ -23020,7 +22933,7 @@
     </row>
     <row r="237" spans="1:30">
       <c r="A237" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1">
         <v>9345301.2326591834</v>
@@ -23112,7 +23025,7 @@
     </row>
     <row r="238" spans="1:30">
       <c r="A238" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1">
         <v>276634.87417864607</v>
@@ -23204,7 +23117,7 @@
     </row>
     <row r="239" spans="1:30">
       <c r="A239" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1">
         <v>137632.26043313066</v>
@@ -23296,7 +23209,7 @@
     </row>
     <row r="240" spans="1:30">
       <c r="A240" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1">
         <v>414879.36271416489</v>
@@ -23388,7 +23301,7 @@
     </row>
     <row r="241" spans="1:30">
       <c r="A241" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1">
         <v>6286223.9856924657</v>
@@ -23480,7 +23393,7 @@
     </row>
     <row r="242" spans="1:30">
       <c r="A242" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1">
         <v>898155.21609167091</v>
@@ -23572,7 +23485,7 @@
     </row>
     <row r="243" spans="1:30">
       <c r="A243" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1">
         <v>730330</v>
@@ -23664,7 +23577,7 @@
     </row>
     <row r="244" spans="1:30">
       <c r="A244" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1">
         <v>846729.99999999988</v>
@@ -23756,7 +23669,7 @@
     </row>
     <row r="245" spans="1:30">
       <c r="A245" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1">
         <v>67748.936090850271</v>
@@ -23848,7 +23761,7 @@
     </row>
     <row r="246" spans="1:30">
       <c r="A246" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1">
         <v>8986389.8483001273</v>
@@ -23940,7 +23853,7 @@
     </row>
     <row r="247" spans="1:30">
       <c r="A247" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1">
         <v>185668.59911347801</v>
@@ -24032,7 +23945,7 @@
     </row>
     <row r="248" spans="1:30">
       <c r="A248" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1">
         <v>2214723.6134867799</v>
@@ -24124,7 +24037,7 @@
     </row>
     <row r="249" spans="1:30">
       <c r="A249" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1">
         <v>848733.42314055457</v>
@@ -24216,7 +24129,7 @@
     </row>
     <row r="250" spans="1:30">
       <c r="A250" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1">
         <v>528147.29575430311</v>
@@ -24308,7 +24221,7 @@
     </row>
     <row r="251" spans="1:30">
       <c r="A251" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1">
         <v>522459.99999999983</v>
@@ -24400,7 +24313,7 @@
     </row>
     <row r="252" spans="1:30">
       <c r="A252" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1">
         <v>8801598.2877037898</v>
@@ -24492,7 +24405,7 @@
     </row>
     <row r="253" spans="1:30">
       <c r="A253" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1">
         <v>5265855.0295373257</v>
@@ -24584,99 +24497,99 @@
     </row>
     <row r="254" spans="1:30">
       <c r="A254" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="T254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="U254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="V254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="W254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="X254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Y254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Z254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AA254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AB254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AC254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:30">
       <c r="A255" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1">
         <v>11335120.000000002</v>
@@ -24768,7 +24681,7 @@
     </row>
     <row r="256" spans="1:30">
       <c r="A256" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1">
         <v>85817.42472660428</v>
@@ -24860,7 +24773,7 @@
     </row>
     <row r="257" spans="1:30">
       <c r="A257" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1">
         <v>1678.358208955224</v>
@@ -24952,7 +24865,7 @@
     </row>
     <row r="258" spans="1:30">
       <c r="A258" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1">
         <v>11377718.561854696</v>
@@ -25044,7 +24957,7 @@
     </row>
     <row r="259" spans="1:30">
       <c r="A259" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1">
         <v>182313.29929181648</v>
@@ -25136,7 +25049,7 @@
     </row>
     <row r="260" spans="1:30">
       <c r="A260" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1">
         <v>115918.16068429456</v>
@@ -25228,7 +25141,7 @@
     </row>
     <row r="261" spans="1:30">
       <c r="A261" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1">
         <v>643079.99999999977</v>
@@ -25320,7 +25233,7 @@
     </row>
     <row r="262" spans="1:30">
       <c r="A262" s="1" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1">
         <v>643079.99999999977</v>
@@ -25412,7 +25325,7 @@
     </row>
     <row r="263" spans="1:30">
       <c r="A263" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B263" s="1">
         <v>396201.73828152521</v>
@@ -25504,7 +25417,7 @@
     </row>
     <row r="264" spans="1:30">
       <c r="A264" s="1" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1">
         <v>396052.02457161102</v>
@@ -25596,7 +25509,7 @@
     </row>
     <row r="265" spans="1:30">
       <c r="A265" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B265" s="1">
         <v>396201.73828152521</v>
@@ -25688,7 +25601,7 @@
     </row>
     <row r="266" spans="1:30">
       <c r="A266" s="1" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B266" s="1">
         <v>6587031.9262204692</v>
@@ -25780,7 +25693,7 @@
     </row>
     <row r="267" spans="1:30">
       <c r="A267" s="1" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1">
         <v>20605300.632395793</v>

--- a/Dataco2.xlsx
+++ b/Dataco2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaminomarina/develop/a-ds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5763AC4-FF1A-0646-8AAC-1152B695B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA104B-73EB-4241-9E79-26DB1AC84AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="500" windowWidth="27900" windowHeight="16180" xr2:uid="{4C3537EA-BE6B-EE41-A6CF-0AB2158792D2}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="27900" windowHeight="16180" xr2:uid="{4C3537EA-BE6B-EE41-A6CF-0AB2158792D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="268">
   <si>
     <t>Country</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -846,17 +846,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1213,8 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251290D1-16FD-264B-93D0-31CD6E156F28}">
   <dimension ref="A1:AD267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y10" sqref="K10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
